--- a/Otros documentos/Documentación/Escenarios de Calidad y resumen de casos de uso.xlsx
+++ b/Otros documentos/Documentación/Escenarios de Calidad y resumen de casos de uso.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\archivos capstone\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\okaed\OneDrive\Desktop\repos\CatchAI\Otros documentos\Documentación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC3D7AB5-10AA-41ED-99FB-481D2A38703C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A9BEC7C-A8C4-4103-84EF-C0A50F0883E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A55DA307-94E4-4EA7-A4F2-E096DB9F6BD5}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{A55DA307-94E4-4EA7-A4F2-E096DB9F6BD5}"/>
   </bookViews>
   <sheets>
     <sheet name="Escenarios de Calidad" sheetId="2" r:id="rId1"/>
@@ -32,6 +32,9 @@
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -357,12 +360,6 @@
     <t>100% de pruebas reproducibles</t>
   </si>
   <si>
-    <t>Texto dentro del vocabulario inicial (50 frases)</t>
-  </si>
-  <si>
-    <t>Se selecciona la seña correcta</t>
-  </si>
-  <si>
     <t>≥95% de aciertos</t>
   </si>
   <si>
@@ -385,6 +382,12 @@
   </si>
   <si>
     <t>Comprensibilidad ≥90%</t>
+  </si>
+  <si>
+    <t>Se selecciona la representación visual correcta</t>
+  </si>
+  <si>
+    <t>Texto dentro del vocabulario inicial (50 animaciones)</t>
   </si>
 </sst>
 </file>
@@ -581,9 +584,6 @@
   <dxfs count="9">
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -652,6 +652,39 @@
         </bottom>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -681,36 +714,6 @@
         </right>
         <top/>
         <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
       </border>
     </dxf>
   </dxfs>
@@ -744,13 +747,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E01E61A3-0E4C-43B5-A90A-EBAE990D56FF}" name="Tabla1" displayName="Tabla1" ref="A1:D12" totalsRowShown="0" headerRowDxfId="5" dataDxfId="0" headerRowBorderDxfId="7" tableBorderDxfId="8" totalsRowBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{E01E61A3-0E4C-43B5-A90A-EBAE990D56FF}" name="Tabla1" displayName="Tabla1" ref="A1:D12" totalsRowShown="0" headerRowDxfId="8" dataDxfId="6" headerRowBorderDxfId="7" tableBorderDxfId="5" totalsRowBorderDxfId="4">
   <autoFilter ref="A1:D12" xr:uid="{E01E61A3-0E4C-43B5-A90A-EBAE990D56FF}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{60A2C7F5-F7C0-4193-8FCC-C2E5A77C75FC}" name="Código" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{F8421BFC-B613-4E0C-962B-B1A7DE226754}" name="Nombre del Caso de Uso" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{1809E860-1314-4315-A759-673C2CA79F3C}" name="Actores Involucrados" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{2010ABDA-C59C-4927-AADE-BA9C919B015F}" name="Prioridad" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{60A2C7F5-F7C0-4193-8FCC-C2E5A77C75FC}" name="Código" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{F8421BFC-B613-4E0C-962B-B1A7DE226754}" name="Nombre del Caso de Uso" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{1809E860-1314-4315-A759-673C2CA79F3C}" name="Actores Involucrados" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{2010ABDA-C59C-4927-AADE-BA9C919B015F}" name="Prioridad" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1075,22 +1078,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A10649-E51E-4CFC-97A0-3FA2F20E35DD}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="14.109375" customWidth="1"/>
-    <col min="3" max="3" width="15.33203125" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" customWidth="1"/>
-    <col min="6" max="6" width="23.21875" customWidth="1"/>
-    <col min="7" max="7" width="22.44140625" customWidth="1"/>
-    <col min="8" max="8" width="20.44140625" customWidth="1"/>
+    <col min="2" max="2" width="14.07421875" customWidth="1"/>
+    <col min="3" max="3" width="15.3046875" customWidth="1"/>
+    <col min="4" max="4" width="13.84375" customWidth="1"/>
+    <col min="5" max="5" width="15.23046875" customWidth="1"/>
+    <col min="6" max="6" width="23.23046875" customWidth="1"/>
+    <col min="7" max="7" width="22.4609375" customWidth="1"/>
+    <col min="8" max="8" width="20.4609375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
@@ -1116,7 +1119,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>38</v>
       </c>
@@ -1142,7 +1145,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
         <v>40</v>
       </c>
@@ -1168,7 +1171,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
         <v>42</v>
       </c>
@@ -1194,7 +1197,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>44</v>
       </c>
@@ -1220,7 +1223,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>46</v>
       </c>
@@ -1246,7 +1249,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
         <v>50</v>
       </c>
@@ -1272,7 +1275,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
         <v>51</v>
       </c>
@@ -1298,7 +1301,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
         <v>52</v>
       </c>
@@ -1324,7 +1327,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
         <v>53</v>
       </c>
@@ -1335,7 +1338,7 @@
         <v>47</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>48</v>
@@ -1344,36 +1347,36 @@
         <v>49</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="G11" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1392,15 +1395,15 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" customWidth="1"/>
-    <col min="2" max="2" width="29.44140625" customWidth="1"/>
-    <col min="3" max="3" width="22.77734375" customWidth="1"/>
-    <col min="4" max="4" width="14.77734375" customWidth="1"/>
+    <col min="1" max="1" width="15.3046875" customWidth="1"/>
+    <col min="2" max="2" width="29.4609375" customWidth="1"/>
+    <col min="3" max="3" width="22.765625" customWidth="1"/>
+    <col min="4" max="4" width="14.765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="19.850000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1414,7 +1417,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -1428,7 +1431,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -1442,7 +1445,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
@@ -1456,7 +1459,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
         <v>13</v>
       </c>
@@ -1470,7 +1473,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
@@ -1484,7 +1487,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
         <v>18</v>
       </c>
@@ -1498,7 +1501,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="s">
         <v>20</v>
       </c>
@@ -1512,7 +1515,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="4" t="s">
         <v>22</v>
       </c>
@@ -1526,7 +1529,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
         <v>24</v>
       </c>
@@ -1540,7 +1543,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="4" t="s">
         <v>26</v>
       </c>
@@ -1554,7 +1557,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" s="9" t="s">
         <v>29</v>
       </c>
